--- a/backend/templates/import_format.xlsx
+++ b/backend/templates/import_format.xlsx
@@ -4,75 +4,139 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Customers" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Invoices" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Payments" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="Invoice Data" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>Customer Code</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Contact Email</t>
-  </si>
-  <si>
-    <t>Contact Phone</t>
-  </si>
-  <si>
-    <t>CUST001</t>
-  </si>
-  <si>
-    <t>Example Company Ltd</t>
-  </si>
-  <si>
-    <t>contact@example.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Email</t>
+  </si>
+  <si>
+    <t>Customer Phone</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>HSN/SAC Code</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Tax Percentage</t>
+  </si>
+  <si>
+    <t>Tax Amount</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>INV-2025-001</t>
+  </si>
+  <si>
+    <t>Acme Corporation</t>
+  </si>
+  <si>
+    <t>contact@acme.com</t>
   </si>
   <si>
     <t>+91-9876543210</t>
   </si>
   <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Issue Date</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>INV20250001</t>
+    <t>123 Business Street, City, State 12345</t>
+  </si>
+  <si>
+    <t>Software License</t>
+  </si>
+  <si>
+    <t>Annual software license subscription</t>
+  </si>
+  <si>
+    <t>998314</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>bank_transfer</t>
+  </si>
+  <si>
+    <t>Payment due within 30 days</t>
+  </si>
+  <si>
+    <t>INV-2025-002</t>
+  </si>
+  <si>
+    <t>Tech Solutions Ltd</t>
+  </si>
+  <si>
+    <t>info@techsolutions.com</t>
+  </si>
+  <si>
+    <t>+91-9876543211</t>
+  </si>
+  <si>
+    <t>456 Tech Park, City, State 12346</t>
+  </si>
+  <si>
+    <t>Consulting Services</t>
+  </si>
+  <si>
+    <t>Monthly consulting and support services</t>
+  </si>
+  <si>
+    <t>998315</t>
   </si>
   <si>
     <t>sent</t>
   </si>
   <si>
-    <t>Payment Code</t>
-  </si>
-  <si>
-    <t>Payment Date</t>
-  </si>
-  <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>PAY001</t>
-  </si>
-  <si>
-    <t>bank_transfer</t>
+    <t>upi</t>
+  </si>
+  <si>
+    <t>Net 45 payment terms</t>
   </si>
 </sst>
 </file>
@@ -92,6 +156,7 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,11 +184,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,148 +544,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15" style="4" customWidth="1"/>
+    <col min="15" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" customWidth="1"/>
+    <col min="20" max="20" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45976.87366506945</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P2" s="3">
+        <v>59000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1">
+        <v>46006.87366506945</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45973.25230349537</v>
-      </c>
-      <c r="E2" s="2">
-        <v>46003.25230349537</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45976.87366506945</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>75000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N3" s="4">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45973.25230349537</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="O3" s="3">
+        <v>12600</v>
+      </c>
+      <c r="P3" s="3">
+        <v>82600</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1">
+        <v>46021.87366506945</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
